--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/DE/20/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/DE/20/seed3/result_data_RandomForest.xlsx
@@ -559,7 +559,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>15.17429999999999</v>
+        <v>15.1093</v>
       </c>
     </row>
     <row r="8">
@@ -573,7 +573,7 @@
         <v>-14.64</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.588600000000007</v>
+        <v>-8.746600000000006</v>
       </c>
       <c r="E8" t="n">
         <v>16.54</v>
@@ -607,7 +607,7 @@
         <v>-12.45</v>
       </c>
       <c r="D10" t="n">
-        <v>-9.15889999999999</v>
+        <v>-9.158599999999989</v>
       </c>
       <c r="E10" t="n">
         <v>15.84</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.255200000000001</v>
+        <v>-7.239400000000001</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>17.1687</v>
+        <v>17.16429999999999</v>
       </c>
     </row>
     <row r="15">
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>15.89680000000001</v>
+        <v>15.7927</v>
       </c>
     </row>
     <row r="16">
@@ -743,10 +743,10 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.547199999999998</v>
+        <v>-8.566500000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>16.53970000000001</v>
+        <v>16.40120000000002</v>
       </c>
     </row>
     <row r="19">
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>15.73360000000001</v>
+        <v>15.6026</v>
       </c>
     </row>
     <row r="21">
@@ -862,7 +862,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.189199999999998</v>
+        <v>-8.145399999999999</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>17.17560000000002</v>
+        <v>17.18430000000002</v>
       </c>
     </row>
     <row r="30">
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.6241</v>
+        <v>15.65759999999999</v>
       </c>
     </row>
     <row r="31">
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>15.9146</v>
+        <v>16.0193</v>
       </c>
     </row>
     <row r="32">
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>15.6772</v>
+        <v>15.6401</v>
       </c>
     </row>
     <row r="36">
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.869599999999994</v>
+        <v>-7.984099999999995</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1120,7 +1120,7 @@
         <v>-7.23</v>
       </c>
       <c r="E40" t="n">
-        <v>17.06670000000001</v>
+        <v>17.04750000000002</v>
       </c>
     </row>
     <row r="41">
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.27069999999999</v>
+        <v>16.37209999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.3205</v>
+        <v>16.3133</v>
       </c>
     </row>
     <row r="51">
@@ -1358,7 +1358,7 @@
         <v>-8.01</v>
       </c>
       <c r="E54" t="n">
-        <v>16.57889999999999</v>
+        <v>16.47759999999999</v>
       </c>
     </row>
     <row r="55">
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.381399999999999</v>
+        <v>-8.407100000000002</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1593,10 +1593,10 @@
         <v>-9.98</v>
       </c>
       <c r="D68" t="n">
-        <v>-7.146099999999997</v>
+        <v>-7.776500000000003</v>
       </c>
       <c r="E68" t="n">
-        <v>17.94590000000001</v>
+        <v>16.03779999999999</v>
       </c>
     </row>
     <row r="69">
@@ -1732,7 +1732,7 @@
         <v>-7.88</v>
       </c>
       <c r="E76" t="n">
-        <v>16.19449999999999</v>
+        <v>16.26179999999999</v>
       </c>
     </row>
     <row r="77">
@@ -1746,7 +1746,7 @@
         <v>-9.57</v>
       </c>
       <c r="D77" t="n">
-        <v>-6.133999999999999</v>
+        <v>-6.169199999999997</v>
       </c>
       <c r="E77" t="n">
         <v>17.96</v>
@@ -1763,7 +1763,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-7.352200000000003</v>
+        <v>-7.503200000000006</v>
       </c>
       <c r="E78" t="n">
         <v>17.28</v>
@@ -1780,7 +1780,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>-5.911600000000001</v>
+        <v>-6.066800000000001</v>
       </c>
       <c r="E79" t="n">
         <v>18.4</v>
@@ -1797,7 +1797,7 @@
         <v>-12.35</v>
       </c>
       <c r="D80" t="n">
-        <v>-7.375099999999998</v>
+        <v>-7.492299999999996</v>
       </c>
       <c r="E80" t="n">
         <v>16.41</v>
@@ -1814,7 +1814,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.5278</v>
+        <v>-7.683199999999997</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1831,7 +1831,7 @@
         <v>-14.08</v>
       </c>
       <c r="D82" t="n">
-        <v>-8.190199999999995</v>
+        <v>-8.443399999999995</v>
       </c>
       <c r="E82" t="n">
         <v>16.71</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.548800000000002</v>
+        <v>-8.776100000000003</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1919,7 +1919,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>16.43559999999999</v>
+        <v>16.37769999999999</v>
       </c>
     </row>
     <row r="88">
@@ -1936,7 +1936,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>16.3591</v>
+        <v>16.33409999999999</v>
       </c>
     </row>
     <row r="89">
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.61860000000002</v>
+        <v>18.42590000000003</v>
       </c>
     </row>
     <row r="93">
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>16.21049999999998</v>
+        <v>15.93059999999998</v>
       </c>
     </row>
     <row r="97">
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>15.431</v>
+        <v>15.28619999999999</v>
       </c>
     </row>
     <row r="99">
@@ -2154,10 +2154,10 @@
         <v>-11.07</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.836600000000005</v>
+        <v>-7.868600000000002</v>
       </c>
       <c r="E101" t="n">
-        <v>16.52859999999999</v>
+        <v>16.663</v>
       </c>
     </row>
     <row r="102">
@@ -2171,10 +2171,10 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.786300000000001</v>
+        <v>-7.999300000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.50050000000001</v>
+        <v>16.5847</v>
       </c>
     </row>
   </sheetData>
